--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dcn-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H2">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J2">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>41.83053813692</v>
+        <v>35.27644592428233</v>
       </c>
       <c r="R2">
-        <v>376.47484323228</v>
+        <v>317.488013318541</v>
       </c>
       <c r="S2">
-        <v>0.0004756450222023231</v>
+        <v>0.0003890365295417184</v>
       </c>
       <c r="T2">
-        <v>0.0004756450222023232</v>
+        <v>0.0003890365295417185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H3">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J3">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>1660.964303260548</v>
+        <v>1295.539498243881</v>
       </c>
       <c r="R3">
-        <v>14948.67872934493</v>
+        <v>11659.85548419493</v>
       </c>
       <c r="S3">
-        <v>0.01888642695237866</v>
+        <v>0.01428749912513394</v>
       </c>
       <c r="T3">
-        <v>0.01888642695237867</v>
+        <v>0.01428749912513395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H4">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J4">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>4.860418718185334</v>
+        <v>8.992942902687002</v>
       </c>
       <c r="R4">
-        <v>43.743768463668</v>
+        <v>80.93648612418302</v>
       </c>
       <c r="S4">
-        <v>5.526665618206343E-05</v>
+        <v>9.917618415238223E-05</v>
       </c>
       <c r="T4">
-        <v>5.526665618206343E-05</v>
+        <v>9.917618415238225E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H5">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J5">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>355.6976070826996</v>
+        <v>331.064762248032</v>
       </c>
       <c r="R5">
-        <v>3201.278463744296</v>
+        <v>2979.582860232288</v>
       </c>
       <c r="S5">
-        <v>0.004044552227953266</v>
+        <v>0.003651056187320512</v>
       </c>
       <c r="T5">
-        <v>0.004044552227953266</v>
+        <v>0.003651056187320513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.57375066666667</v>
+        <v>20.727323</v>
       </c>
       <c r="H6">
-        <v>79.72125199999999</v>
+        <v>62.181969</v>
       </c>
       <c r="I6">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="J6">
-        <v>0.0234902361349606</v>
+        <v>0.01847607812009791</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>2.492821544621778</v>
+        <v>4.471263572021667</v>
       </c>
       <c r="R6">
-        <v>22.435393901596</v>
+        <v>40.241372148195</v>
       </c>
       <c r="S6">
-        <v>2.834527624428401E-05</v>
+        <v>4.931009394935254E-05</v>
       </c>
       <c r="T6">
-        <v>2.834527624428402E-05</v>
+        <v>4.931009394935256E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I7">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J7">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>1728.38878296737</v>
+        <v>1868.712333330832</v>
       </c>
       <c r="R7">
-        <v>15555.49904670633</v>
+        <v>16818.41099997748</v>
       </c>
       <c r="S7">
-        <v>0.01965309454919895</v>
+        <v>0.02060857724815212</v>
       </c>
       <c r="T7">
-        <v>0.01965309454919895</v>
+        <v>0.02060857724815212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I8">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J8">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>68629.09727022992</v>
@@ -948,10 +948,10 @@
         <v>617661.8754320692</v>
       </c>
       <c r="S8">
-        <v>0.7803650143819886</v>
+        <v>0.7568570225271194</v>
       </c>
       <c r="T8">
-        <v>0.7803650143819888</v>
+        <v>0.7568570225271195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3293.988647</v>
       </c>
       <c r="I9">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J9">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>200.8268018340804</v>
+        <v>476.3865200950811</v>
       </c>
       <c r="R9">
-        <v>1807.441216506723</v>
+        <v>4287.47868085573</v>
       </c>
       <c r="S9">
-        <v>0.002283553424642269</v>
+        <v>0.005253697010635485</v>
       </c>
       <c r="T9">
-        <v>0.002283553424642269</v>
+        <v>0.005253697010635486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3293.988647</v>
       </c>
       <c r="I10">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J10">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>14697.00801356556</v>
+        <v>17537.61718717482</v>
       </c>
       <c r="R10">
-        <v>132273.07212209</v>
+        <v>157838.5546845733</v>
       </c>
       <c r="S10">
-        <v>0.1671161551887898</v>
+        <v>0.1934087618002716</v>
       </c>
       <c r="T10">
-        <v>0.1671161551887898</v>
+        <v>0.1934087618002716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3293.988647</v>
       </c>
       <c r="I11">
-        <v>0.9705890111197625</v>
+        <v>0.9787401805929885</v>
       </c>
       <c r="J11">
-        <v>0.9705890111197626</v>
+        <v>0.9787401805929886</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>103.0004630005201</v>
+        <v>236.8579136499206</v>
       </c>
       <c r="R11">
-        <v>927.004167004681</v>
+        <v>2131.721222849285</v>
       </c>
       <c r="S11">
-        <v>0.001171193575142929</v>
+        <v>0.002612122006809895</v>
       </c>
       <c r="T11">
-        <v>0.001171193575142929</v>
+        <v>0.002612122006809896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H12">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J12">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>0.30593269021</v>
+        <v>1.699893591475444</v>
       </c>
       <c r="R12">
-        <v>2.75339421189</v>
+        <v>15.299042323279</v>
       </c>
       <c r="S12">
-        <v>3.478687287049715E-06</v>
+        <v>1.874680643388166E-05</v>
       </c>
       <c r="T12">
-        <v>3.478687287049716E-06</v>
+        <v>1.874680643388166E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H13">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J13">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>12.147662934099</v>
+        <v>62.42917144473901</v>
       </c>
       <c r="R13">
-        <v>109.328966406891</v>
+        <v>561.862543002651</v>
       </c>
       <c r="S13">
-        <v>0.0001381281633787102</v>
+        <v>0.0006884828549099454</v>
       </c>
       <c r="T13">
-        <v>0.0001381281633787103</v>
+        <v>0.0006884828549099456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H14">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I14">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J14">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.03554725901766666</v>
+        <v>0.4333499480530001</v>
       </c>
       <c r="R14">
-        <v>0.319925331159</v>
+        <v>3.900149532477001</v>
       </c>
       <c r="S14">
-        <v>4.041993614652246E-07</v>
+        <v>4.779080075965812E-06</v>
       </c>
       <c r="T14">
-        <v>4.041993614652247E-07</v>
+        <v>4.779080075965814E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H15">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I15">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J15">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>2.601437387199778</v>
+        <v>15.953275704608</v>
       </c>
       <c r="R15">
-        <v>23.412936484798</v>
+        <v>143.579481341472</v>
       </c>
       <c r="S15">
-        <v>2.958032095457281E-05</v>
+        <v>0.0001759362898480304</v>
       </c>
       <c r="T15">
-        <v>2.958032095457282E-05</v>
+        <v>0.0001759362898480305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1943503333333333</v>
+        <v>0.9988036666666668</v>
       </c>
       <c r="H16">
-        <v>0.583051</v>
+        <v>2.996411</v>
       </c>
       <c r="I16">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934181</v>
       </c>
       <c r="J16">
-        <v>0.0001717986775812918</v>
+        <v>0.0008903211751934183</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.01823155128588889</v>
+        <v>0.2154602623005556</v>
       </c>
       <c r="R16">
-        <v>0.164083961573</v>
+        <v>1.939142360705</v>
       </c>
       <c r="S16">
-        <v>2.073065994937716E-07</v>
+        <v>2.376143925594788E-06</v>
       </c>
       <c r="T16">
-        <v>2.073065994937717E-07</v>
+        <v>2.376143925594789E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H17">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I17">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J17">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>9.593642325839999</v>
+        <v>2.110054669972889</v>
       </c>
       <c r="R17">
-        <v>86.34278093256</v>
+        <v>18.990492029756</v>
       </c>
       <c r="S17">
-        <v>0.0001090870072514755</v>
+        <v>2.327015447393738E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001090870072514755</v>
+        <v>2.327015447393738E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H18">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I18">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J18">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>380.934555259896</v>
+        <v>77.49247682919601</v>
       </c>
       <c r="R18">
-        <v>3428.410997339064</v>
+        <v>697.4322914627641</v>
       </c>
       <c r="S18">
-        <v>0.004331515516275554</v>
+        <v>0.0008546043531689979</v>
       </c>
       <c r="T18">
-        <v>0.004331515516275555</v>
+        <v>0.0008546043531689981</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H19">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I19">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J19">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>1.114714770904</v>
+        <v>0.5379113646920001</v>
       </c>
       <c r="R19">
-        <v>10.032432938136</v>
+        <v>4.841202282228001</v>
       </c>
       <c r="S19">
-        <v>1.267515445821922E-05</v>
+        <v>5.932206746960795E-06</v>
       </c>
       <c r="T19">
-        <v>1.267515445821922E-05</v>
+        <v>5.932206746960797E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H20">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I20">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J20">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>81.57761698735467</v>
+        <v>19.802582979712</v>
       </c>
       <c r="R20">
-        <v>734.198552886192</v>
+        <v>178.223246817408</v>
       </c>
       <c r="S20">
-        <v>0.0009275995282718092</v>
+        <v>0.0002183873107547408</v>
       </c>
       <c r="T20">
-        <v>0.0009275995282718094</v>
+        <v>0.0002183873107547409</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.094568</v>
+        <v>1.239801333333333</v>
       </c>
       <c r="H21">
-        <v>18.283704</v>
+        <v>3.719404</v>
       </c>
       <c r="I21">
-        <v>0.005387378065534189</v>
+        <v>0.001105143500106994</v>
       </c>
       <c r="J21">
-        <v>0.005387378065534191</v>
+        <v>0.001105143500106995</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>0.5717172034213333</v>
+        <v>0.2674478772911111</v>
       </c>
       <c r="R21">
-        <v>5.145454830792</v>
+        <v>2.40703089562</v>
       </c>
       <c r="S21">
-        <v>6.500859277131279E-06</v>
+        <v>2.949474962357619E-06</v>
       </c>
       <c r="T21">
-        <v>6.500859277131281E-06</v>
+        <v>2.94947496235762E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H22">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I22">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J22">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>0.64388108578</v>
+        <v>1.505059519784889</v>
       </c>
       <c r="R22">
-        <v>5.794929772020001</v>
+        <v>13.545535678064</v>
       </c>
       <c r="S22">
-        <v>7.321417485451312E-06</v>
+        <v>1.659813274805547E-05</v>
       </c>
       <c r="T22">
-        <v>7.321417485451314E-06</v>
+        <v>1.659813274805547E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H23">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I23">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J23">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>25.566572811582</v>
+        <v>55.273823765424</v>
       </c>
       <c r="R23">
-        <v>230.099155304238</v>
+        <v>497.464413888816</v>
       </c>
       <c r="S23">
-        <v>0.0002907113710275022</v>
+        <v>0.0006095720815627653</v>
       </c>
       <c r="T23">
-        <v>0.0002907113710275023</v>
+        <v>0.0006095720815627654</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H24">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I24">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J24">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>0.07481452118466668</v>
+        <v>0.383681348048</v>
       </c>
       <c r="R24">
-        <v>0.6733306906620001</v>
+        <v>3.453132132432</v>
       </c>
       <c r="S24">
-        <v>8.506979870414142E-07</v>
+        <v>4.231323654737443E-06</v>
       </c>
       <c r="T24">
-        <v>8.506979870414145E-07</v>
+        <v>4.231323654737444E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H25">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I25">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J25">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>5.475113915773779</v>
+        <v>14.124783804928</v>
       </c>
       <c r="R25">
-        <v>49.27602524196401</v>
+        <v>127.123054244352</v>
       </c>
       <c r="S25">
-        <v>6.225620792886639E-05</v>
+        <v>0.000155771272530994</v>
       </c>
       <c r="T25">
-        <v>6.225620792886641E-05</v>
+        <v>0.0001557712725309941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4090393333333334</v>
+        <v>0.8843253333333333</v>
       </c>
       <c r="H26">
-        <v>1.227118</v>
+        <v>2.652976</v>
       </c>
       <c r="I26">
-        <v>0.0003615760021613883</v>
+        <v>0.0007882766116130041</v>
       </c>
       <c r="J26">
-        <v>0.0003615760021613884</v>
+        <v>0.0007882766116130042</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>0.03837102543488889</v>
+        <v>0.1907651870311111</v>
       </c>
       <c r="R26">
-        <v>0.345339228914</v>
+        <v>1.71688668328</v>
       </c>
       <c r="S26">
-        <v>4.363077325269968E-07</v>
+        <v>2.103801116451901E-06</v>
       </c>
       <c r="T26">
-        <v>4.36307732526997E-07</v>
+        <v>2.103801116451902E-06</v>
       </c>
     </row>
   </sheetData>
